--- a/biology/Biochimie/Pyruvate_déshydrogénase/Pyruvate_déshydrogénase.xlsx
+++ b/biology/Biochimie/Pyruvate_déshydrogénase/Pyruvate_déshydrogénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pyruvate_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Pyruvate_déshydrogénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La pyruvate déshydrogénase (ou PDH) — à ne pas confondre avec la pyruvate décarboxylase[3] bien qu'on l'appelle parfois également ainsi — est la première des trois enzymes du complexe pyruvate déshydrogénase (PDC), constitué d'une décarboxylase, d'une acétyltransférase et d'une oxydoréductase intervenant séquentiellement pour catalyser la décarboxylation oxydative du pyruvate en acétyl-CoA, réaction qui assure notamment la liaison entre la glycolyse et le cycle de Krebs. Les autres enzymes de ce complexe sont la dihydrolipoamide S-acétyltransférase (E2) et la dihydrolipoyl déshydrogénase (E3).
+La pyruvate déshydrogénase (ou PDH) — à ne pas confondre avec la pyruvate décarboxylase bien qu'on l'appelle parfois également ainsi — est la première des trois enzymes du complexe pyruvate déshydrogénase (PDC), constitué d'une décarboxylase, d'une acétyltransférase et d'une oxydoréductase intervenant séquentiellement pour catalyser la décarboxylation oxydative du pyruvate en acétyl-CoA, réaction qui assure notamment la liaison entre la glycolyse et le cycle de Krebs. Les autres enzymes de ce complexe sont la dihydrolipoamide S-acétyltransférase (E2) et la dihydrolipoyl déshydrogénase (E3).
 La PDH est inhibée par la PDHK (ou pyruvate déshydrogénase kinase).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pyruvate_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Pyruvate_déshydrogénase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Le complexe pyruvate déshydrogénase</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réaction globale catalysée par le PDC est la suivante :
 Le mécanisme de cette réaction est assez complexe, et peut être résumé par le schéma simplifié ci-dessous :
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pyruvate_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Pyruvate_déshydrogénase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>La pyruvate déshydrogénase</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pyruvate déshydrogénase proprement dite (E1) catalyse deux réactions successives : la décarboxylation du pyruvate avec la thiamine pyrophosphate (TPP) comme cofacteur, et l'acétylation du lipoamide, ce dernier étant lié à la dihydrolipoamide S-acétyltransférase (E2).
 Le mécanisme de cette réaction peut être schématisé comme suit :
